--- a/Organisational/Members/Quan/Booked_Hours_Quan.xlsx
+++ b/Organisational/Members/Quan/Booked_Hours_Quan.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelw/CSSE/CITS3200/Administrivia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{31A31D98-CA30-574B-8C94-F50C456CB544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88703A73-1D4A-4BA6-87AE-64516276AE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="21780" windowHeight="15340" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BookedHours" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Wk</t>
   </si>
@@ -63,12 +76,15 @@
 Each time you do some work on the project, note the week number, start and end date and hour, plus a brief description of the activity. At the end of each week send a copy of the sheet as it currently stands to your group's manager for recording on the group TimeSheet. Date in the form DD/MM/YY and time as XX:YY (24hr clock)</t>
     </r>
   </si>
+  <si>
+    <t>First offline group meeting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -281,6 +297,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -295,10 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -321,7 +337,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -735,28 +751,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I65536"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="5.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="71" customHeight="1">
+    <row r="1" spans="1:9" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -768,30 +784,30 @@
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" customHeight="1">
-      <c r="A3" s="8"/>
+    <row r="3" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -805,28 +821,42 @@
         <v>3</v>
       </c>
       <c r="F3" s="18"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="G4" s="6" t="str">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44405</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44405</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6">
         <f>IF(I4&gt;0,I4,IF(I4=0, " ", "ERROR"))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H4" s="1" t="str">
+        <v>0.49999999988358468</v>
+      </c>
+      <c r="H4" s="1">
         <f>IF(G4&lt;&gt;"ERROR",G4)</f>
-        <v xml:space="preserve"> </v>
+        <v>0.49999999988358468</v>
       </c>
       <c r="I4" s="1">
         <f>((D4+E4)-(B4+C4))*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.49999999988358468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
@@ -844,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -862,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
@@ -880,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
@@ -898,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
@@ -916,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
@@ -934,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
@@ -952,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
@@ -970,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
@@ -988,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -1006,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -1024,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
@@ -1042,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
@@ -1060,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
@@ -1078,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
@@ -1096,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
@@ -1114,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
@@ -1132,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
@@ -1150,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
@@ -1168,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
@@ -1186,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
@@ -1204,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
@@ -1222,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
@@ -1240,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
@@ -1258,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
@@ -1276,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
@@ -1294,25 +1324,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="1" t="e">
@@ -1320,8 +1350,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
-      <c r="A32" s="8"/>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1334,15 +1364,15 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
       <c r="I32" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
@@ -1360,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
@@ -1378,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
@@ -1396,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
@@ -1414,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
@@ -1432,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
@@ -1450,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
@@ -1468,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
@@ -1486,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
@@ -1504,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
@@ -1522,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
@@ -1540,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
@@ -1558,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
@@ -1576,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
@@ -1594,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
@@ -1612,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
@@ -1630,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
@@ -1648,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
@@ -1666,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
@@ -1684,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
@@ -1702,7 +1732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
@@ -1720,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
@@ -1738,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
@@ -1756,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
@@ -1774,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
@@ -1792,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="4"/>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="4"/>
@@ -1828,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="G60" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1843,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="G61" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1858,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="G62" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1873,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="G63" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1888,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="G64" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1903,25 +1933,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16">
-      <c r="A65" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="9" t="s">
+      <c r="C65" s="11"/>
+      <c r="D65" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="11" t="s">
+      <c r="E65" s="11"/>
+      <c r="F65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I65" s="1" t="e">
@@ -1929,8 +1959,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16">
-      <c r="A66" s="8"/>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>2</v>
       </c>
@@ -1943,15 +1973,15 @@
       <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
       <c r="I66" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G67" s="6" t="str">
         <f t="shared" ref="G67:G98" si="5">IF(I67&gt;0,I67,IF(I67=0, " ", "ERROR"))</f>
         <v xml:space="preserve"> </v>
@@ -1965,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G68" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -1979,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G69" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -1993,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G70" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2007,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G71" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2021,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G72" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2035,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G73" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2049,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G74" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2063,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G75" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2077,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G76" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2091,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G77" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2105,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G78" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2119,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G79" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2133,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G80" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2147,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="7:9">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G81" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2161,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="7:9">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G82" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2175,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="7:9">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G83" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2189,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="7:9">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G84" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2203,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:9">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G85" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2217,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:9">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G86" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2231,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="7:9">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G87" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2245,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="7:9">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G88" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2259,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:9">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G89" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2273,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:9">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G90" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2287,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="7:9">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G91" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2301,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="7:9">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G92" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2315,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:9">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G93" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2329,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:9">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G94" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2343,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="7:9">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G95" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2357,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="7:9">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G96" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2371,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G97" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2385,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G98" s="6" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2399,25 +2429,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16">
-      <c r="A99" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="11"/>
+      <c r="D99" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="11" t="s">
+      <c r="E99" s="11"/>
+      <c r="F99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="G99" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="H99" s="7" t="s">
         <v>6</v>
       </c>
       <c r="I99" s="1" t="e">
@@ -2425,8 +2455,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16">
-      <c r="A100" s="8"/>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
       <c r="B100" s="2" t="s">
         <v>2</v>
       </c>
@@ -2439,15 +2469,15 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
       <c r="I100" s="1" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G101" s="6" t="str">
         <f t="shared" ref="G101:G132" si="8">IF(I101&gt;0,I101,IF(I101=0, " ", "ERROR"))</f>
         <v xml:space="preserve"> </v>
@@ -2461,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G102" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2475,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G103" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2489,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G104" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2503,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G105" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2517,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G106" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2531,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G107" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2545,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G108" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2559,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G109" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2573,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G110" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2587,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G111" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2601,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G112" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2615,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="7:9">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G113" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2629,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="7:9">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G114" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2643,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="7:9">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G115" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2657,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:9">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G116" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2671,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:9">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G117" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2685,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="7:9">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G118" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2699,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="7:9">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G119" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2713,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:9">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G120" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2727,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:9">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G121" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2741,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="7:9">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G122" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2755,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="7:9">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G123" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2769,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:9">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G124" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2783,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:9">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G125" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2797,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="7:9">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G126" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2811,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:9">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G127" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2825,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:9">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G128" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2839,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="7:9">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G129" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2853,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="7:9">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G130" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2867,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="7:9">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G131" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2881,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="7:9">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G132" s="6" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -2909,19 +2939,19 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="G65:G66"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H99:H100"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:F100"/>
     <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2931,12 +2961,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2946,12 +2976,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
